--- a/Podaci_final.xlsx
+++ b/Podaci_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davor/Desktop/Faks/Članci 2025/HNB i Euro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Dropbox\Clanci\Euro_Davor\Einfuhrung_des_Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24B2D80B-F259-0B4C-8084-C713FD94DF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8132B554-4310-4DDD-BB00-1FAEDAA91EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5472" yWindow="3940" windowWidth="24310" windowHeight="15906" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prosinac 2022" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="810">
   <si>
     <t>URL</t>
   </si>
@@ -1031,9 +1031,6 @@
     <t>voditelj Odjela za odnose s javnošću Hrvatske pošte Krešimir Domjančić, Boris Vujčić, ministar Marko Primorac, direktorica Hrvatske udruge poslodavaca Irena Weber</t>
   </si>
   <si>
-    <t>PRENOŠENJE</t>
-  </si>
-  <si>
     <t>DODATNE NAPOMENE</t>
   </si>
   <si>
@@ -2442,6 +2439,18 @@
   </si>
   <si>
     <t>https://www.poslovni.hr/hrvatska/mikulic-u-jednoj-je-djelatnosti-cijena-skocila-160-za-to-nema-opravdanja-4373112</t>
+  </si>
+  <si>
+    <t>ZANR</t>
+  </si>
+  <si>
+    <t>GRAFICKA OPREMA</t>
+  </si>
+  <si>
+    <t>PRENOSENJE</t>
+  </si>
+  <si>
+    <t>SIFRA</t>
   </si>
 </sst>
 </file>
@@ -2993,39 +3002,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="O53" sqref="O53"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
     <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.83203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.77734375" style="23" customWidth="1"/>
     <col min="5" max="5" width="55" style="23" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="29.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.5" style="1"/>
+    <col min="22" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>172</v>
       </c>
@@ -3045,7 +3054,7 @@
         <v>176</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>177</v>
+        <v>806</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>178</v>
@@ -3054,7 +3063,7 @@
         <v>179</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>180</v>
+        <v>807</v>
       </c>
       <c r="K1" s="24" t="s">
         <v>181</v>
@@ -3084,13 +3093,13 @@
         <v>184</v>
       </c>
       <c r="T1" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="U1" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="U1" s="17" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:50" s="4" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>24001</v>
       </c>
@@ -3180,7 +3189,7 @@
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
     </row>
-    <row r="3" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" s="4" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>24002</v>
       </c>
@@ -3268,7 +3277,7 @@
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
     </row>
-    <row r="4" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" s="4" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>24003</v>
       </c>
@@ -3360,7 +3369,7 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" s="4" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>24004</v>
       </c>
@@ -3448,7 +3457,7 @@
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
     </row>
-    <row r="6" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" s="4" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>24005</v>
       </c>
@@ -3538,7 +3547,7 @@
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
     </row>
-    <row r="7" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" s="4" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>24006</v>
       </c>
@@ -3628,7 +3637,7 @@
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
     </row>
-    <row r="8" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" s="4" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>24007</v>
       </c>
@@ -3718,7 +3727,7 @@
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
     </row>
-    <row r="9" spans="1:50" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50" s="4" customFormat="1" ht="60.25" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>24008</v>
       </c>
@@ -3810,7 +3819,7 @@
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
     </row>
-    <row r="10" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" s="4" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>24009</v>
       </c>
@@ -3898,7 +3907,7 @@
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
     </row>
-    <row r="11" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50" s="4" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>24010</v>
       </c>
@@ -3988,7 +3997,7 @@
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
     </row>
-    <row r="12" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50" s="4" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>24011</v>
       </c>
@@ -4080,7 +4089,7 @@
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
     </row>
-    <row r="13" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" s="4" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>24012</v>
       </c>
@@ -4168,7 +4177,7 @@
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
     </row>
-    <row r="14" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" s="4" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>24013</v>
       </c>
@@ -4256,7 +4265,7 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
     </row>
-    <row r="15" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" s="4" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>24014</v>
       </c>
@@ -4344,7 +4353,7 @@
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
     </row>
-    <row r="16" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50" s="4" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>24015</v>
       </c>
@@ -4432,7 +4441,7 @@
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
     </row>
-    <row r="17" spans="1:50" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:50" s="4" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>24016</v>
       </c>
@@ -4522,7 +4531,7 @@
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
     </row>
-    <row r="18" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:50" s="4" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>24017</v>
       </c>
@@ -4612,7 +4621,7 @@
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
     </row>
-    <row r="19" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50" s="4" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>24018</v>
       </c>
@@ -4702,7 +4711,7 @@
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
     </row>
-    <row r="20" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:50" s="4" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>24019</v>
       </c>
@@ -4792,7 +4801,7 @@
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
     </row>
-    <row r="21" spans="1:50" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50" s="4" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>24020</v>
       </c>
@@ -4880,7 +4889,7 @@
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
     </row>
-    <row r="22" spans="1:50" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:50" s="4" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>24021</v>
       </c>
@@ -4972,7 +4981,7 @@
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
     </row>
-    <row r="23" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:50" s="7" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>189</v>
       </c>
@@ -5060,7 +5069,7 @@
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
     </row>
-    <row r="24" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:50" s="7" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>190</v>
       </c>
@@ -5150,7 +5159,7 @@
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
     </row>
-    <row r="25" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:50" s="7" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>191</v>
       </c>
@@ -5238,7 +5247,7 @@
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
     </row>
-    <row r="26" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:50" s="7" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>192</v>
       </c>
@@ -5328,7 +5337,7 @@
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
     </row>
-    <row r="27" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:50" s="7" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>193</v>
       </c>
@@ -5416,7 +5425,7 @@
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
     </row>
-    <row r="28" spans="1:50" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:50" s="7" customFormat="1" ht="90.35" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>194</v>
       </c>
@@ -5508,7 +5517,7 @@
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
     </row>
-    <row r="29" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:50" s="7" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>195</v>
       </c>
@@ -5598,7 +5607,7 @@
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
     </row>
-    <row r="30" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:50" s="7" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>196</v>
       </c>
@@ -5686,7 +5695,7 @@
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
     </row>
-    <row r="31" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:50" s="7" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>197</v>
       </c>
@@ -5776,7 +5785,7 @@
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
     </row>
-    <row r="32" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:50" s="7" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>198</v>
       </c>
@@ -5864,7 +5873,7 @@
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
     </row>
-    <row r="33" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:50" s="7" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>199</v>
       </c>
@@ -5952,7 +5961,7 @@
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
     </row>
-    <row r="34" spans="1:50" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:50" s="7" customFormat="1" ht="60.25" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>200</v>
       </c>
@@ -6042,7 +6051,7 @@
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
     </row>
-    <row r="35" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:50" s="7" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>249</v>
       </c>
@@ -6130,7 +6139,7 @@
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
     </row>
-    <row r="36" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:50" s="7" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>201</v>
       </c>
@@ -6218,7 +6227,7 @@
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
     </row>
-    <row r="37" spans="1:50" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:50" s="7" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>202</v>
       </c>
@@ -6310,7 +6319,7 @@
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
     </row>
-    <row r="38" spans="1:50" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:50" s="7" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>203</v>
       </c>
@@ -6398,7 +6407,7 @@
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
     </row>
-    <row r="39" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:50" s="7" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>204</v>
       </c>
@@ -6486,7 +6495,7 @@
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
     </row>
-    <row r="40" spans="1:50" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:50" s="7" customFormat="1" ht="75.3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>250</v>
       </c>
@@ -6578,7 +6587,7 @@
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
     </row>
-    <row r="41" spans="1:50" s="7" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:50" s="7" customFormat="1" ht="107.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>251</v>
       </c>
@@ -6634,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
@@ -6668,7 +6677,7 @@
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
     </row>
-    <row r="42" spans="1:50" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:50" s="7" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>252</v>
       </c>
@@ -6724,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
@@ -6758,7 +6767,7 @@
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
     </row>
-    <row r="43" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:50" s="7" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>205</v>
       </c>
@@ -6814,7 +6823,7 @@
         <v>2</v>
       </c>
       <c r="S43" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
@@ -6848,7 +6857,7 @@
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
     </row>
-    <row r="44" spans="1:50" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:50" s="7" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>206</v>
       </c>
@@ -6936,7 +6945,7 @@
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
     </row>
-    <row r="45" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:50" s="7" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>207</v>
       </c>
@@ -7024,7 +7033,7 @@
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
     </row>
-    <row r="46" spans="1:50" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:50" s="7" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>253</v>
       </c>
@@ -7081,7 +7090,7 @@
       </c>
       <c r="S46" s="23"/>
       <c r="T46" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -7114,7 +7123,7 @@
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
     </row>
-    <row r="47" spans="1:50" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:50" s="7" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>208</v>
       </c>
@@ -7173,7 +7182,7 @@
         <v>321</v>
       </c>
       <c r="T47" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
@@ -7206,7 +7215,7 @@
       <c r="AW47" s="1"/>
       <c r="AX47" s="1"/>
     </row>
-    <row r="48" spans="1:50" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:50" s="7" customFormat="1" ht="75.3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>209</v>
       </c>
@@ -7262,7 +7271,7 @@
         <v>2</v>
       </c>
       <c r="S48" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
@@ -7296,7 +7305,7 @@
       <c r="AW48" s="1"/>
       <c r="AX48" s="1"/>
     </row>
-    <row r="49" spans="1:50" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:50" s="7" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>254</v>
       </c>
@@ -7384,7 +7393,7 @@
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
     </row>
-    <row r="50" spans="1:50" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:50" s="7" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>210</v>
       </c>
@@ -7474,7 +7483,7 @@
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
     </row>
-    <row r="51" spans="1:50" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:50" s="7" customFormat="1" ht="75.3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>255</v>
       </c>
@@ -7533,7 +7542,7 @@
         <v>306</v>
       </c>
       <c r="T51" s="34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
@@ -7566,7 +7575,7 @@
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
     </row>
-    <row r="52" spans="1:50" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:50" s="16" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>256</v>
       </c>
@@ -7656,7 +7665,7 @@
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
     </row>
-    <row r="53" spans="1:50" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:50" s="16" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>257</v>
       </c>
@@ -7746,7 +7755,7 @@
       <c r="AW53" s="1"/>
       <c r="AX53" s="1"/>
     </row>
-    <row r="54" spans="1:50" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:50" s="16" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>211</v>
       </c>
@@ -7836,7 +7845,7 @@
       <c r="AW54" s="1"/>
       <c r="AX54" s="1"/>
     </row>
-    <row r="55" spans="1:50" s="16" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:50" s="16" customFormat="1" ht="90.35" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>212</v>
       </c>
@@ -7930,7 +7939,7 @@
       <c r="AW55" s="1"/>
       <c r="AX55" s="1"/>
     </row>
-    <row r="56" spans="1:50" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:50" s="16" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>213</v>
       </c>
@@ -8020,7 +8029,7 @@
       <c r="AW56" s="1"/>
       <c r="AX56" s="1"/>
     </row>
-    <row r="57" spans="1:50" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:50" s="16" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>214</v>
       </c>
@@ -8108,7 +8117,7 @@
       <c r="AW57" s="1"/>
       <c r="AX57" s="1"/>
     </row>
-    <row r="58" spans="1:50" s="16" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:50" s="16" customFormat="1" ht="75.3" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>215</v>
       </c>
@@ -8198,7 +8207,7 @@
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
     </row>
-    <row r="59" spans="1:50" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:50" s="16" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>258</v>
       </c>
@@ -8286,7 +8295,7 @@
       <c r="AW59" s="1"/>
       <c r="AX59" s="1"/>
     </row>
-    <row r="60" spans="1:50" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:50" s="16" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>259</v>
       </c>
@@ -8376,7 +8385,7 @@
       <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
     </row>
-    <row r="61" spans="1:50" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:50" s="16" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>216</v>
       </c>
@@ -8466,7 +8475,7 @@
       <c r="AW61" s="1"/>
       <c r="AX61" s="1"/>
     </row>
-    <row r="62" spans="1:50" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:50" s="16" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>260</v>
       </c>
@@ -8554,7 +8563,7 @@
       <c r="AW62" s="1"/>
       <c r="AX62" s="1"/>
     </row>
-    <row r="63" spans="1:50" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:50" s="16" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>217</v>
       </c>
@@ -8644,7 +8653,7 @@
       <c r="AW63" s="1"/>
       <c r="AX63" s="1"/>
     </row>
-    <row r="64" spans="1:50" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:50" s="16" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>218</v>
       </c>
@@ -8736,7 +8745,7 @@
       <c r="AW64" s="1"/>
       <c r="AX64" s="1"/>
     </row>
-    <row r="65" spans="1:50" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:50" s="16" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>261</v>
       </c>
@@ -8828,7 +8837,7 @@
       <c r="AW65" s="1"/>
       <c r="AX65" s="1"/>
     </row>
-    <row r="66" spans="1:50" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:50" s="13" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>219</v>
       </c>
@@ -8916,7 +8925,7 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="1"/>
     </row>
-    <row r="67" spans="1:50" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:50" s="13" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>220</v>
       </c>
@@ -9006,7 +9015,7 @@
       <c r="AW67" s="1"/>
       <c r="AX67" s="1"/>
     </row>
-    <row r="68" spans="1:50" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:50" s="13" customFormat="1" ht="90.35" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>221</v>
       </c>
@@ -9098,7 +9107,7 @@
       <c r="AW68" s="1"/>
       <c r="AX68" s="1"/>
     </row>
-    <row r="69" spans="1:50" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:50" s="13" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>222</v>
       </c>
@@ -9188,7 +9197,7 @@
       <c r="AW69" s="1"/>
       <c r="AX69" s="1"/>
     </row>
-    <row r="70" spans="1:50" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:50" s="13" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>223</v>
       </c>
@@ -9278,7 +9287,7 @@
       <c r="AW70" s="1"/>
       <c r="AX70" s="1"/>
     </row>
-    <row r="71" spans="1:50" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:50" s="13" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>224</v>
       </c>
@@ -9368,7 +9377,7 @@
       <c r="AW71" s="1"/>
       <c r="AX71" s="1"/>
     </row>
-    <row r="72" spans="1:50" s="13" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:50" s="13" customFormat="1" ht="90.35" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>225</v>
       </c>
@@ -9458,7 +9467,7 @@
       <c r="AW72" s="1"/>
       <c r="AX72" s="1"/>
     </row>
-    <row r="73" spans="1:50" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:50" s="13" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>226</v>
       </c>
@@ -9548,7 +9557,7 @@
       <c r="AW73" s="1"/>
       <c r="AX73" s="1"/>
     </row>
-    <row r="74" spans="1:50" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:50" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>227</v>
       </c>
@@ -9638,7 +9647,7 @@
       <c r="AW74" s="1"/>
       <c r="AX74" s="1"/>
     </row>
-    <row r="75" spans="1:50" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:50" s="10" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>228</v>
       </c>
@@ -9728,7 +9737,7 @@
       <c r="AW75" s="1"/>
       <c r="AX75" s="1"/>
     </row>
-    <row r="76" spans="1:50" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:50" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>229</v>
       </c>
@@ -9818,7 +9827,7 @@
       <c r="AW76" s="1"/>
       <c r="AX76" s="1"/>
     </row>
-    <row r="77" spans="1:50" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:50" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>230</v>
       </c>
@@ -9908,7 +9917,7 @@
       <c r="AW77" s="1"/>
       <c r="AX77" s="1"/>
     </row>
-    <row r="78" spans="1:50" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:50" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>231</v>
       </c>
@@ -9996,7 +10005,7 @@
       <c r="AW78" s="1"/>
       <c r="AX78" s="1"/>
     </row>
-    <row r="79" spans="1:50" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:50" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>232</v>
       </c>
@@ -10084,7 +10093,7 @@
       <c r="AW79" s="1"/>
       <c r="AX79" s="1"/>
     </row>
-    <row r="80" spans="1:50" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:50" s="10" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>233</v>
       </c>
@@ -10174,7 +10183,7 @@
       <c r="AW80" s="1"/>
       <c r="AX80" s="1"/>
     </row>
-    <row r="81" spans="1:50" s="10" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:50" s="10" customFormat="1" ht="90.35" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>234</v>
       </c>
@@ -10266,7 +10275,7 @@
       <c r="AW81" s="1"/>
       <c r="AX81" s="1"/>
     </row>
-    <row r="82" spans="1:50" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:50" s="10" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>235</v>
       </c>
@@ -10356,7 +10365,7 @@
       <c r="AW82" s="1"/>
       <c r="AX82" s="1"/>
     </row>
-    <row r="83" spans="1:50" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:50" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>236</v>
       </c>
@@ -10444,7 +10453,7 @@
       <c r="AW83" s="1"/>
       <c r="AX83" s="1"/>
     </row>
-    <row r="84" spans="1:50" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:50" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>237</v>
       </c>
@@ -10532,7 +10541,7 @@
       <c r="AW84" s="1"/>
       <c r="AX84" s="1"/>
     </row>
-    <row r="85" spans="1:50" s="10" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:50" s="10" customFormat="1" ht="90.35" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>238</v>
       </c>
@@ -10624,7 +10633,7 @@
       <c r="AW85" s="1"/>
       <c r="AX85" s="1"/>
     </row>
-    <row r="86" spans="1:50" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:50" s="10" customFormat="1" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>239</v>
       </c>
@@ -10716,7 +10725,7 @@
       <c r="AW86" s="1"/>
       <c r="AX86" s="1"/>
     </row>
-    <row r="87" spans="1:50" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:50" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>240</v>
       </c>
@@ -10804,7 +10813,7 @@
       <c r="AW87" s="1"/>
       <c r="AX87" s="1"/>
     </row>
-    <row r="88" spans="1:50" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:50" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>241</v>
       </c>
@@ -10892,7 +10901,7 @@
       <c r="AW88" s="1"/>
       <c r="AX88" s="1"/>
     </row>
-    <row r="89" spans="1:50" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:50" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>242</v>
       </c>
@@ -10982,7 +10991,7 @@
       <c r="AW89" s="1"/>
       <c r="AX89" s="1"/>
     </row>
-    <row r="90" spans="1:50" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:50" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>284</v>
       </c>
@@ -11072,7 +11081,7 @@
       <c r="AW90" s="1"/>
       <c r="AX90" s="1"/>
     </row>
-    <row r="91" spans="1:50" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:50" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>243</v>
       </c>
@@ -11160,7 +11169,7 @@
       <c r="AW91" s="1"/>
       <c r="AX91" s="1"/>
     </row>
-    <row r="92" spans="1:50" s="10" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:50" s="10" customFormat="1" ht="90.35" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>244</v>
       </c>
@@ -11250,7 +11259,7 @@
       <c r="AW92" s="1"/>
       <c r="AX92" s="1"/>
     </row>
-    <row r="93" spans="1:50" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:50" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>245</v>
       </c>
@@ -11340,7 +11349,7 @@
       <c r="AW93" s="1"/>
       <c r="AX93" s="1"/>
     </row>
-    <row r="94" spans="1:50" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:50" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>246</v>
       </c>
@@ -11432,7 +11441,7 @@
       <c r="AW94" s="1"/>
       <c r="AX94" s="1"/>
     </row>
-    <row r="95" spans="1:50" s="10" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:50" s="10" customFormat="1" ht="75.3" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>247</v>
       </c>
@@ -11634,37 +11643,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E5423C-0F5A-6346-B858-B7832BF7E4FD}">
   <dimension ref="A1:U149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="11.5" style="1"/>
+    <col min="1" max="3" width="11.44140625" style="1"/>
     <col min="4" max="4" width="52.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="59.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="65.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="65.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.5" style="1"/>
+    <col min="22" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>172</v>
+        <v>809</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>173</v>
@@ -11682,7 +11691,7 @@
         <v>176</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>177</v>
+        <v>806</v>
       </c>
       <c r="H1" s="36" t="s">
         <v>178</v>
@@ -11691,7 +11700,7 @@
         <v>179</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>180</v>
+        <v>807</v>
       </c>
       <c r="K1" s="36" t="s">
         <v>181</v>
@@ -11718,18 +11727,18 @@
         <v>188</v>
       </c>
       <c r="S1" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="T1" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="U1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -11738,10 +11747,10 @@
         <v>44927</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>349</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>350</v>
       </c>
       <c r="F2" s="1">
         <v>3</v>
@@ -11783,12 +11792,12 @@
         <v>3</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -11797,10 +11806,10 @@
         <v>44927</v>
       </c>
       <c r="D3" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>353</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>354</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -11842,9 +11851,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -11853,10 +11862,10 @@
         <v>44927</v>
       </c>
       <c r="D4" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>356</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>357</v>
       </c>
       <c r="F4" s="1">
         <v>5</v>
@@ -11898,12 +11907,12 @@
         <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -11912,10 +11921,10 @@
         <v>44927</v>
       </c>
       <c r="D5" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>360</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>361</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -11957,12 +11966,12 @@
         <v>2</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -11971,10 +11980,10 @@
         <v>44928</v>
       </c>
       <c r="D6" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>364</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>365</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -12016,9 +12025,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -12027,10 +12036,10 @@
         <v>44928</v>
       </c>
       <c r="D7" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>367</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>368</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -12072,12 +12081,12 @@
         <v>4</v>
       </c>
       <c r="S7" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -12086,10 +12095,10 @@
         <v>44929</v>
       </c>
       <c r="D8" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>371</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>372</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -12131,9 +12140,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
@@ -12142,10 +12151,10 @@
         <v>44929</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="E9" s="39" t="s">
         <v>374</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>375</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -12187,12 +12196,12 @@
         <v>0</v>
       </c>
       <c r="T9" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -12201,10 +12210,10 @@
         <v>44929</v>
       </c>
       <c r="D10" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>378</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>379</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -12246,9 +12255,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
@@ -12257,10 +12266,10 @@
         <v>44929</v>
       </c>
       <c r="D11" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>381</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>382</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -12302,9 +12311,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -12313,10 +12322,10 @@
         <v>44929</v>
       </c>
       <c r="D12" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>384</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>385</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
@@ -12358,12 +12367,12 @@
         <v>2</v>
       </c>
       <c r="S12" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
@@ -12372,10 +12381,10 @@
         <v>44930</v>
       </c>
       <c r="D13" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="E13" s="39" t="s">
         <v>388</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>389</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -12417,9 +12426,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
@@ -12428,10 +12437,10 @@
         <v>44930</v>
       </c>
       <c r="D14" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="E14" s="39" t="s">
         <v>391</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>392</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
@@ -12473,9 +12482,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -12484,54 +12493,54 @@
         <v>44931</v>
       </c>
       <c r="D15" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>4</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>4</v>
+      </c>
+      <c r="R15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1">
-        <v>2</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1">
-        <v>2</v>
-      </c>
-      <c r="N15" s="1">
-        <v>4</v>
-      </c>
-      <c r="O15" s="1">
-        <v>3</v>
-      </c>
-      <c r="P15" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>4</v>
-      </c>
-      <c r="R15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -12540,54 +12549,54 @@
         <v>44931</v>
       </c>
       <c r="D16" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E16" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4</v>
+      </c>
+      <c r="O16" s="1">
+        <v>3</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>4</v>
+      </c>
+      <c r="R16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2</v>
-      </c>
-      <c r="M16" s="1">
-        <v>2</v>
-      </c>
-      <c r="N16" s="1">
-        <v>4</v>
-      </c>
-      <c r="O16" s="1">
-        <v>3</v>
-      </c>
-      <c r="P16" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>4</v>
-      </c>
-      <c r="R16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
@@ -12596,10 +12605,10 @@
         <v>44931</v>
       </c>
       <c r="D17" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>400</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>401</v>
       </c>
       <c r="F17" s="1">
         <v>3</v>
@@ -12641,15 +12650,15 @@
         <v>5</v>
       </c>
       <c r="S17" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="U17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
@@ -12658,10 +12667,10 @@
         <v>44933</v>
       </c>
       <c r="D18" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E18" s="39" t="s">
         <v>405</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>406</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
@@ -12703,9 +12712,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
@@ -12714,10 +12723,10 @@
         <v>44933</v>
       </c>
       <c r="D19" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="E19" s="39" t="s">
         <v>408</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>409</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
@@ -12759,12 +12768,12 @@
         <v>5</v>
       </c>
       <c r="U19" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
@@ -12773,10 +12782,10 @@
         <v>44935</v>
       </c>
       <c r="D20" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>412</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>413</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -12818,9 +12827,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
@@ -12829,10 +12838,10 @@
         <v>44936</v>
       </c>
       <c r="D21" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="E21" s="39" t="s">
         <v>415</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>416</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -12874,9 +12883,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
@@ -12885,10 +12894,10 @@
         <v>44937</v>
       </c>
       <c r="D22" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>418</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>419</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -12930,9 +12939,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
@@ -12941,10 +12950,10 @@
         <v>44937</v>
       </c>
       <c r="D23" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="E23" s="39" t="s">
         <v>421</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>422</v>
       </c>
       <c r="F23" s="1">
         <v>3</v>
@@ -12986,9 +12995,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4</v>
@@ -12997,10 +13006,10 @@
         <v>44941</v>
       </c>
       <c r="D24" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="E24" s="39" t="s">
         <v>424</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>425</v>
       </c>
       <c r="F24" s="1">
         <v>3</v>
@@ -13042,9 +13051,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4</v>
@@ -13053,10 +13062,10 @@
         <v>44942</v>
       </c>
       <c r="D25" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="E25" s="39" t="s">
         <v>427</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>428</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
@@ -13098,7 +13107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C26" s="38"/>
       <c r="D26" s="23"/>
       <c r="E26" s="39"/>
@@ -13142,18 +13151,18 @@
         <v>188</v>
       </c>
       <c r="S26" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="T26" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="T26" s="17" t="s">
+      <c r="U26" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="U26" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>4</v>
@@ -13162,10 +13171,10 @@
         <v>44943</v>
       </c>
       <c r="D27" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="E27" s="39" t="s">
         <v>430</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>431</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
@@ -13207,9 +13216,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
@@ -13218,10 +13227,10 @@
         <v>44944</v>
       </c>
       <c r="D28" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="E28" s="39" t="s">
         <v>433</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>434</v>
       </c>
       <c r="F28" s="1">
         <v>3</v>
@@ -13263,9 +13272,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>4</v>
@@ -13274,10 +13283,10 @@
         <v>44946</v>
       </c>
       <c r="D29" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="E29" s="39" t="s">
         <v>436</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>437</v>
       </c>
       <c r="F29" s="1">
         <v>3</v>
@@ -13319,9 +13328,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
@@ -13330,10 +13339,10 @@
         <v>44949</v>
       </c>
       <c r="D30" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="E30" s="39" t="s">
         <v>439</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>440</v>
       </c>
       <c r="F30" s="1">
         <v>5</v>
@@ -13375,9 +13384,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>4</v>
@@ -13386,10 +13395,10 @@
         <v>44949</v>
       </c>
       <c r="D31" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="E31" s="39" t="s">
         <v>442</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>443</v>
       </c>
       <c r="F31" s="1">
         <v>5</v>
@@ -13431,12 +13440,12 @@
         <v>0</v>
       </c>
       <c r="S31" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>4</v>
@@ -13445,10 +13454,10 @@
         <v>44950</v>
       </c>
       <c r="D32" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="E32" s="39" t="s">
         <v>446</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>447</v>
       </c>
       <c r="F32" s="1">
         <v>3</v>
@@ -13490,9 +13499,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>4</v>
@@ -13501,10 +13510,10 @@
         <v>44950</v>
       </c>
       <c r="D33" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="E33" s="39" t="s">
         <v>449</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>450</v>
       </c>
       <c r="F33" s="1">
         <v>3</v>
@@ -13546,12 +13555,12 @@
         <v>0</v>
       </c>
       <c r="S33" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>451</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
@@ -13560,10 +13569,10 @@
         <v>44927</v>
       </c>
       <c r="D34" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="E34" s="39" t="s">
         <v>453</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>454</v>
       </c>
       <c r="F34" s="1">
         <v>5</v>
@@ -13605,9 +13614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
@@ -13616,10 +13625,10 @@
         <v>44927</v>
       </c>
       <c r="D35" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="E35" s="39" t="s">
         <v>456</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>457</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -13661,9 +13670,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1</v>
@@ -13672,10 +13681,10 @@
         <v>44927</v>
       </c>
       <c r="D36" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="E36" s="39" t="s">
         <v>459</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>460</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -13717,9 +13726,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1</v>
@@ -13728,10 +13737,10 @@
         <v>44927</v>
       </c>
       <c r="D37" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="E37" s="39" t="s">
         <v>462</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>463</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -13773,12 +13782,12 @@
         <v>4</v>
       </c>
       <c r="S37" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1</v>
@@ -13787,10 +13796,10 @@
         <v>44927</v>
       </c>
       <c r="D38" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E38" s="39" t="s">
         <v>466</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>467</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -13832,9 +13841,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1</v>
@@ -13843,10 +13852,10 @@
         <v>44928</v>
       </c>
       <c r="D39" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="E39" s="39" t="s">
         <v>469</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>470</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -13888,9 +13897,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
@@ -13899,10 +13908,10 @@
         <v>44928</v>
       </c>
       <c r="D40" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="E40" s="39" t="s">
         <v>472</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>473</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
@@ -13944,9 +13953,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1</v>
@@ -13955,10 +13964,10 @@
         <v>44928</v>
       </c>
       <c r="D41" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="E41" s="39" t="s">
         <v>475</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>476</v>
       </c>
       <c r="F41" s="1">
         <v>3</v>
@@ -14000,12 +14009,12 @@
         <v>4</v>
       </c>
       <c r="S41" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>477</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="32" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -14014,10 +14023,10 @@
         <v>44928</v>
       </c>
       <c r="D42" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="E42" s="39" t="s">
         <v>479</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>480</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
@@ -14059,12 +14068,12 @@
         <v>5</v>
       </c>
       <c r="S42" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>481</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="32" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
@@ -14073,10 +14082,10 @@
         <v>44928</v>
       </c>
       <c r="D43" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="E43" s="39" t="s">
         <v>483</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>484</v>
       </c>
       <c r="F43" s="1">
         <v>5</v>
@@ -14118,9 +14127,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1</v>
@@ -14129,10 +14138,10 @@
         <v>44928</v>
       </c>
       <c r="D44" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="E44" s="39" t="s">
         <v>486</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>487</v>
       </c>
       <c r="F44" s="1">
         <v>5</v>
@@ -14174,9 +14183,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>1</v>
@@ -14185,10 +14194,10 @@
         <v>44928</v>
       </c>
       <c r="D45" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="E45" s="39" t="s">
         <v>489</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>490</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -14230,12 +14239,12 @@
         <v>3</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -14244,10 +14253,10 @@
         <v>44929</v>
       </c>
       <c r="D46" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="E46" s="39" t="s">
         <v>492</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>493</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -14289,9 +14298,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>1</v>
@@ -14300,10 +14309,10 @@
         <v>44929</v>
       </c>
       <c r="D47" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="E47" s="39" t="s">
         <v>495</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>496</v>
       </c>
       <c r="F47" s="1">
         <v>5</v>
@@ -14345,12 +14354,12 @@
         <v>5</v>
       </c>
       <c r="S47" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1</v>
@@ -14359,10 +14368,10 @@
         <v>44930</v>
       </c>
       <c r="D48" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="E48" s="39" t="s">
         <v>499</v>
-      </c>
-      <c r="E48" s="39" t="s">
-        <v>500</v>
       </c>
       <c r="F48" s="1">
         <v>5</v>
@@ -14404,9 +14413,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>1</v>
@@ -14415,10 +14424,10 @@
         <v>44930</v>
       </c>
       <c r="D49" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="E49" s="39" t="s">
         <v>502</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>503</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -14460,9 +14469,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>1</v>
@@ -14471,10 +14480,10 @@
         <v>44930</v>
       </c>
       <c r="D50" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="E50" s="39" t="s">
         <v>505</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>506</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -14516,7 +14525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C51" s="38"/>
       <c r="D51" s="23"/>
       <c r="E51" s="39"/>
@@ -14560,18 +14569,18 @@
         <v>188</v>
       </c>
       <c r="S51" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="T51" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="T51" s="17" t="s">
+      <c r="U51" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="U51" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>1</v>
@@ -14580,54 +14589,54 @@
         <v>44930</v>
       </c>
       <c r="D52" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="E52" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>4</v>
+      </c>
+      <c r="K52" s="1">
+        <v>3</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <v>2</v>
+      </c>
+      <c r="N52" s="1">
+        <v>4</v>
+      </c>
+      <c r="O52" s="1">
+        <v>4</v>
+      </c>
+      <c r="P52" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>4</v>
+      </c>
+      <c r="R52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1</v>
-      </c>
-      <c r="J52" s="1">
-        <v>4</v>
-      </c>
-      <c r="K52" s="1">
-        <v>3</v>
-      </c>
-      <c r="L52" s="1">
-        <v>1</v>
-      </c>
-      <c r="M52" s="1">
-        <v>2</v>
-      </c>
-      <c r="N52" s="1">
-        <v>4</v>
-      </c>
-      <c r="O52" s="1">
-        <v>4</v>
-      </c>
-      <c r="P52" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>4</v>
-      </c>
-      <c r="R52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>1</v>
@@ -14636,10 +14645,10 @@
         <v>44931</v>
       </c>
       <c r="D53" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E53" s="39" t="s">
         <v>511</v>
-      </c>
-      <c r="E53" s="39" t="s">
-        <v>512</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
@@ -14681,12 +14690,12 @@
         <v>5</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>1</v>
@@ -14695,10 +14704,10 @@
         <v>44933</v>
       </c>
       <c r="D54" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="E54" s="39" t="s">
         <v>514</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>515</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
@@ -14740,9 +14749,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>1</v>
@@ -14751,10 +14760,10 @@
         <v>44933</v>
       </c>
       <c r="D55" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="E55" s="39" t="s">
         <v>517</v>
-      </c>
-      <c r="E55" s="39" t="s">
-        <v>518</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
@@ -14796,9 +14805,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1</v>
@@ -14807,10 +14816,10 @@
         <v>44936</v>
       </c>
       <c r="D56" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="E56" s="39" t="s">
         <v>520</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>521</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
@@ -14852,12 +14861,12 @@
         <v>5</v>
       </c>
       <c r="S56" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>1</v>
@@ -14866,10 +14875,10 @@
         <v>44937</v>
       </c>
       <c r="D57" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="E57" s="39" t="s">
         <v>524</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>525</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
@@ -14911,12 +14920,12 @@
         <v>4</v>
       </c>
       <c r="S57" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>526</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>1</v>
@@ -14925,10 +14934,10 @@
         <v>44937</v>
       </c>
       <c r="D58" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="E58" s="39" t="s">
         <v>528</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>529</v>
       </c>
       <c r="F58" s="1">
         <v>5</v>
@@ -14970,9 +14979,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>1</v>
@@ -14981,54 +14990,54 @@
         <v>44938</v>
       </c>
       <c r="D59" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="E59" s="39" t="s">
         <v>531</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1">
+        <v>4</v>
+      </c>
+      <c r="K59" s="1">
+        <v>3</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2</v>
+      </c>
+      <c r="M59" s="1">
+        <v>2</v>
+      </c>
+      <c r="N59" s="1">
+        <v>4</v>
+      </c>
+      <c r="O59" s="1">
+        <v>2</v>
+      </c>
+      <c r="P59" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>3</v>
+      </c>
+      <c r="R59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1">
-        <v>1</v>
-      </c>
-      <c r="H59" s="1">
-        <v>2</v>
-      </c>
-      <c r="I59" s="1">
-        <v>1</v>
-      </c>
-      <c r="J59" s="1">
-        <v>4</v>
-      </c>
-      <c r="K59" s="1">
-        <v>3</v>
-      </c>
-      <c r="L59" s="1">
-        <v>2</v>
-      </c>
-      <c r="M59" s="1">
-        <v>2</v>
-      </c>
-      <c r="N59" s="1">
-        <v>4</v>
-      </c>
-      <c r="O59" s="1">
-        <v>2</v>
-      </c>
-      <c r="P59" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>3</v>
-      </c>
-      <c r="R59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>1</v>
@@ -15037,10 +15046,10 @@
         <v>44938</v>
       </c>
       <c r="D60" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="E60" s="39" t="s">
         <v>534</v>
-      </c>
-      <c r="E60" s="39" t="s">
-        <v>535</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
@@ -15082,12 +15091,12 @@
         <v>5</v>
       </c>
       <c r="U60" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>536</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1</v>
@@ -15096,10 +15105,10 @@
         <v>44938</v>
       </c>
       <c r="D61" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="E61" s="39" t="s">
         <v>538</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>539</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
@@ -15141,9 +15150,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>1</v>
@@ -15152,10 +15161,10 @@
         <v>44939</v>
       </c>
       <c r="D62" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="E62" s="39" t="s">
         <v>541</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>542</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
@@ -15197,9 +15206,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>1</v>
@@ -15208,10 +15217,10 @@
         <v>44939</v>
       </c>
       <c r="D63" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="E63" s="39" t="s">
         <v>544</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>545</v>
       </c>
       <c r="F63" s="1">
         <v>5</v>
@@ -15253,9 +15262,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>1</v>
@@ -15264,10 +15273,10 @@
         <v>44940</v>
       </c>
       <c r="D64" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="E64" s="39" t="s">
         <v>547</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>548</v>
       </c>
       <c r="F64" s="1">
         <v>1</v>
@@ -15309,9 +15318,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>1</v>
@@ -15320,10 +15329,10 @@
         <v>44940</v>
       </c>
       <c r="D65" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="E65" s="39" t="s">
         <v>550</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>551</v>
       </c>
       <c r="F65" s="1">
         <v>5</v>
@@ -15365,9 +15374,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1</v>
@@ -15376,10 +15385,10 @@
         <v>44940</v>
       </c>
       <c r="D66" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="E66" s="39" t="s">
         <v>553</v>
-      </c>
-      <c r="E66" s="39" t="s">
-        <v>554</v>
       </c>
       <c r="F66" s="1">
         <v>5</v>
@@ -15421,9 +15430,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
@@ -15432,10 +15441,10 @@
         <v>44942</v>
       </c>
       <c r="D67" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="E67" s="39" t="s">
         <v>556</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>557</v>
       </c>
       <c r="F67" s="1">
         <v>5</v>
@@ -15477,9 +15486,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>1</v>
@@ -15488,10 +15497,10 @@
         <v>44943</v>
       </c>
       <c r="D68" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="E68" s="39" t="s">
         <v>559</v>
-      </c>
-      <c r="E68" s="39" t="s">
-        <v>560</v>
       </c>
       <c r="F68" s="1">
         <v>1</v>
@@ -15533,9 +15542,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1</v>
@@ -15544,10 +15553,10 @@
         <v>44944</v>
       </c>
       <c r="D69" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="E69" s="39" t="s">
         <v>562</v>
-      </c>
-      <c r="E69" s="39" t="s">
-        <v>563</v>
       </c>
       <c r="F69" s="1">
         <v>3</v>
@@ -15589,9 +15598,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1</v>
@@ -15600,10 +15609,10 @@
         <v>44944</v>
       </c>
       <c r="D70" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="E70" s="39" t="s">
         <v>565</v>
-      </c>
-      <c r="E70" s="39" t="s">
-        <v>566</v>
       </c>
       <c r="F70" s="1">
         <v>5</v>
@@ -15645,9 +15654,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1</v>
@@ -15656,10 +15665,10 @@
         <v>44945</v>
       </c>
       <c r="D71" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="E71" s="39" t="s">
         <v>568</v>
-      </c>
-      <c r="E71" s="39" t="s">
-        <v>569</v>
       </c>
       <c r="F71" s="1">
         <v>1</v>
@@ -15701,9 +15710,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1</v>
@@ -15712,10 +15721,10 @@
         <v>44945</v>
       </c>
       <c r="D72" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="E72" s="39" t="s">
         <v>571</v>
-      </c>
-      <c r="E72" s="39" t="s">
-        <v>572</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
@@ -15757,9 +15766,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1</v>
@@ -15768,10 +15777,10 @@
         <v>44945</v>
       </c>
       <c r="D73" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="E73" s="39" t="s">
         <v>574</v>
-      </c>
-      <c r="E73" s="39" t="s">
-        <v>575</v>
       </c>
       <c r="F73" s="1">
         <v>1</v>
@@ -15813,12 +15822,12 @@
         <v>1</v>
       </c>
       <c r="S73" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>576</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1</v>
@@ -15827,10 +15836,10 @@
         <v>44949</v>
       </c>
       <c r="D74" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="E74" s="39" t="s">
         <v>578</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>579</v>
       </c>
       <c r="F74" s="1">
         <v>5</v>
@@ -15872,9 +15881,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1</v>
@@ -15883,10 +15892,10 @@
         <v>44949</v>
       </c>
       <c r="D75" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="E75" s="39" t="s">
         <v>581</v>
-      </c>
-      <c r="E75" s="39" t="s">
-        <v>582</v>
       </c>
       <c r="F75" s="1">
         <v>5</v>
@@ -15928,9 +15937,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1</v>
@@ -15939,10 +15948,10 @@
         <v>44950</v>
       </c>
       <c r="D76" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E76" s="39" t="s">
         <v>584</v>
-      </c>
-      <c r="E76" s="39" t="s">
-        <v>585</v>
       </c>
       <c r="F76" s="1">
         <v>1</v>
@@ -15984,9 +15993,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1</v>
@@ -15995,10 +16004,10 @@
         <v>44950</v>
       </c>
       <c r="D77" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="E77" s="39" t="s">
         <v>587</v>
-      </c>
-      <c r="E77" s="39" t="s">
-        <v>588</v>
       </c>
       <c r="F77" s="1">
         <v>5</v>
@@ -16040,10 +16049,10 @@
         <v>0</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C78" s="38"/>
       <c r="D78" s="23"/>
       <c r="E78" s="39"/>
@@ -16087,18 +16096,18 @@
         <v>188</v>
       </c>
       <c r="S78" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="T78" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="T78" s="17" t="s">
+      <c r="U78" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="U78" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:21" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>2</v>
@@ -16107,10 +16116,10 @@
         <v>44927</v>
       </c>
       <c r="D79" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="E79" s="39" t="s">
         <v>591</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>592</v>
       </c>
       <c r="F79" s="1">
         <v>3</v>
@@ -16152,9 +16161,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>2</v>
@@ -16163,10 +16172,10 @@
         <v>44927</v>
       </c>
       <c r="D80" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="E80" s="39" t="s">
         <v>594</v>
-      </c>
-      <c r="E80" s="39" t="s">
-        <v>595</v>
       </c>
       <c r="F80" s="1">
         <v>2</v>
@@ -16208,12 +16217,12 @@
         <v>1</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>2</v>
@@ -16222,10 +16231,10 @@
         <v>44928</v>
       </c>
       <c r="D81" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="E81" s="39" t="s">
         <v>597</v>
-      </c>
-      <c r="E81" s="39" t="s">
-        <v>598</v>
       </c>
       <c r="F81" s="1">
         <v>2</v>
@@ -16267,9 +16276,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>2</v>
@@ -16278,10 +16287,10 @@
         <v>44928</v>
       </c>
       <c r="D82" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="E82" s="39" t="s">
         <v>600</v>
-      </c>
-      <c r="E82" s="39" t="s">
-        <v>601</v>
       </c>
       <c r="F82" s="1">
         <v>5</v>
@@ -16323,9 +16332,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>2</v>
@@ -16334,10 +16343,10 @@
         <v>44928</v>
       </c>
       <c r="D83" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="E83" s="39" t="s">
         <v>603</v>
-      </c>
-      <c r="E83" s="39" t="s">
-        <v>604</v>
       </c>
       <c r="F83" s="1">
         <v>5</v>
@@ -16379,9 +16388,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>2</v>
@@ -16390,10 +16399,10 @@
         <v>44928</v>
       </c>
       <c r="D84" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="E84" s="39" t="s">
         <v>606</v>
-      </c>
-      <c r="E84" s="39" t="s">
-        <v>607</v>
       </c>
       <c r="F84" s="1">
         <v>1</v>
@@ -16435,9 +16444,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>2</v>
@@ -16446,10 +16455,10 @@
         <v>44929</v>
       </c>
       <c r="D85" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="E85" s="39" t="s">
         <v>609</v>
-      </c>
-      <c r="E85" s="39" t="s">
-        <v>610</v>
       </c>
       <c r="F85" s="1">
         <v>3</v>
@@ -16491,12 +16500,12 @@
         <v>1</v>
       </c>
       <c r="S85" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>611</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="48" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>2</v>
@@ -16505,10 +16514,10 @@
         <v>44929</v>
       </c>
       <c r="D86" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="E86" s="39" t="s">
         <v>613</v>
-      </c>
-      <c r="E86" s="39" t="s">
-        <v>614</v>
       </c>
       <c r="F86" s="1">
         <v>5</v>
@@ -16550,12 +16559,12 @@
         <v>1</v>
       </c>
       <c r="S86" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>615</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="32" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>2</v>
@@ -16564,10 +16573,10 @@
         <v>44929</v>
       </c>
       <c r="D87" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="E87" s="39" t="s">
         <v>617</v>
-      </c>
-      <c r="E87" s="39" t="s">
-        <v>618</v>
       </c>
       <c r="F87" s="1">
         <v>1</v>
@@ -16609,9 +16618,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>2</v>
@@ -16620,10 +16629,10 @@
         <v>44929</v>
       </c>
       <c r="D88" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="E88" s="39" t="s">
         <v>620</v>
-      </c>
-      <c r="E88" s="39" t="s">
-        <v>621</v>
       </c>
       <c r="F88" s="1">
         <v>3</v>
@@ -16665,12 +16674,12 @@
         <v>4</v>
       </c>
       <c r="S88" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>622</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="32" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>2</v>
@@ -16679,10 +16688,10 @@
         <v>44930</v>
       </c>
       <c r="D89" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="E89" s="39" t="s">
         <v>624</v>
-      </c>
-      <c r="E89" s="39" t="s">
-        <v>625</v>
       </c>
       <c r="F89" s="1">
         <v>3</v>
@@ -16724,9 +16733,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>2</v>
@@ -16735,10 +16744,10 @@
         <v>44930</v>
       </c>
       <c r="D90" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="E90" s="39" t="s">
         <v>627</v>
-      </c>
-      <c r="E90" s="39" t="s">
-        <v>628</v>
       </c>
       <c r="F90" s="1">
         <v>5</v>
@@ -16780,9 +16789,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>2</v>
@@ -16791,10 +16800,10 @@
         <v>44932</v>
       </c>
       <c r="D91" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="E91" s="39" t="s">
         <v>630</v>
-      </c>
-      <c r="E91" s="39" t="s">
-        <v>631</v>
       </c>
       <c r="F91" s="1">
         <v>3</v>
@@ -16836,12 +16845,12 @@
         <v>1</v>
       </c>
       <c r="S91" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>632</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="32" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>2</v>
@@ -16850,10 +16859,10 @@
         <v>44937</v>
       </c>
       <c r="D92" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="E92" s="39" t="s">
         <v>634</v>
-      </c>
-      <c r="E92" s="39" t="s">
-        <v>635</v>
       </c>
       <c r="F92" s="1">
         <v>5</v>
@@ -16895,9 +16904,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>2</v>
@@ -16906,10 +16915,10 @@
         <v>44942</v>
       </c>
       <c r="D93" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="E93" s="39" t="s">
         <v>637</v>
-      </c>
-      <c r="E93" s="39" t="s">
-        <v>638</v>
       </c>
       <c r="F93" s="1">
         <v>3</v>
@@ -16951,12 +16960,12 @@
         <v>1</v>
       </c>
       <c r="S93" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>639</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="32" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>2</v>
@@ -16965,10 +16974,10 @@
         <v>44943</v>
       </c>
       <c r="D94" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="E94" s="39" t="s">
         <v>641</v>
-      </c>
-      <c r="E94" s="39" t="s">
-        <v>642</v>
       </c>
       <c r="F94" s="1">
         <v>3</v>
@@ -17010,9 +17019,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>2</v>
@@ -17021,10 +17030,10 @@
         <v>44945</v>
       </c>
       <c r="D95" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="E95" s="39" t="s">
         <v>644</v>
-      </c>
-      <c r="E95" s="39" t="s">
-        <v>645</v>
       </c>
       <c r="F95" s="1">
         <v>3</v>
@@ -17066,12 +17075,12 @@
         <v>1</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>2</v>
@@ -17080,10 +17089,10 @@
         <v>44946</v>
       </c>
       <c r="D96" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="E96" s="39" t="s">
         <v>647</v>
-      </c>
-      <c r="E96" s="39" t="s">
-        <v>648</v>
       </c>
       <c r="F96" s="1">
         <v>2</v>
@@ -17125,9 +17134,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>2</v>
@@ -17136,10 +17145,10 @@
         <v>44947</v>
       </c>
       <c r="D97" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="E97" s="39" t="s">
         <v>650</v>
-      </c>
-      <c r="E97" s="39" t="s">
-        <v>651</v>
       </c>
       <c r="F97" s="1">
         <v>3</v>
@@ -17181,9 +17190,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>2</v>
@@ -17192,10 +17201,10 @@
         <v>44949</v>
       </c>
       <c r="D98" s="23" t="s">
+        <v>652</v>
+      </c>
+      <c r="E98" s="39" t="s">
         <v>653</v>
-      </c>
-      <c r="E98" s="39" t="s">
-        <v>654</v>
       </c>
       <c r="F98" s="1">
         <v>5</v>
@@ -17237,10 +17246,10 @@
         <v>0</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C99" s="38"/>
       <c r="D99" s="23"/>
       <c r="E99" s="39"/>
@@ -17284,18 +17293,18 @@
         <v>188</v>
       </c>
       <c r="S99" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="T99" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="T99" s="17" t="s">
+      <c r="U99" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="U99" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>2</v>
@@ -17304,10 +17313,10 @@
         <v>44949</v>
       </c>
       <c r="D100" s="23" t="s">
+        <v>655</v>
+      </c>
+      <c r="E100" s="39" t="s">
         <v>656</v>
-      </c>
-      <c r="E100" s="39" t="s">
-        <v>657</v>
       </c>
       <c r="F100" s="1">
         <v>5</v>
@@ -17349,12 +17358,12 @@
         <v>0</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>2</v>
@@ -17363,10 +17372,10 @@
         <v>44951</v>
       </c>
       <c r="D101" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="E101" s="39" t="s">
         <v>659</v>
-      </c>
-      <c r="E101" s="39" t="s">
-        <v>660</v>
       </c>
       <c r="F101" s="1">
         <v>3</v>
@@ -17408,9 +17417,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>18</v>
@@ -17419,10 +17428,10 @@
         <v>44927</v>
       </c>
       <c r="D102" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="E102" s="39" t="s">
         <v>662</v>
-      </c>
-      <c r="E102" s="39" t="s">
-        <v>663</v>
       </c>
       <c r="F102" s="1">
         <v>1</v>
@@ -17464,9 +17473,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>18</v>
@@ -17475,10 +17484,10 @@
         <v>44927</v>
       </c>
       <c r="D103" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E103" s="39" t="s">
         <v>665</v>
-      </c>
-      <c r="E103" s="39" t="s">
-        <v>666</v>
       </c>
       <c r="F103" s="1">
         <v>1</v>
@@ -17520,12 +17529,12 @@
         <v>0</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>18</v>
@@ -17534,10 +17543,10 @@
         <v>44927</v>
       </c>
       <c r="D104" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="E104" s="39" t="s">
         <v>668</v>
-      </c>
-      <c r="E104" s="39" t="s">
-        <v>669</v>
       </c>
       <c r="F104" s="1">
         <v>5</v>
@@ -17579,9 +17588,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>18</v>
@@ -17590,10 +17599,10 @@
         <v>44928</v>
       </c>
       <c r="D105" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="E105" s="39" t="s">
         <v>671</v>
-      </c>
-      <c r="E105" s="39" t="s">
-        <v>672</v>
       </c>
       <c r="F105" s="1">
         <v>5</v>
@@ -17635,9 +17644,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>18</v>
@@ -17646,10 +17655,10 @@
         <v>44928</v>
       </c>
       <c r="D106" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="E106" s="39" t="s">
         <v>674</v>
-      </c>
-      <c r="E106" s="39" t="s">
-        <v>675</v>
       </c>
       <c r="F106" s="1">
         <v>1</v>
@@ -17691,9 +17700,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>18</v>
@@ -17702,10 +17711,10 @@
         <v>44928</v>
       </c>
       <c r="D107" s="23" t="s">
+        <v>676</v>
+      </c>
+      <c r="E107" s="39" t="s">
         <v>677</v>
-      </c>
-      <c r="E107" s="39" t="s">
-        <v>678</v>
       </c>
       <c r="F107" s="1">
         <v>3</v>
@@ -17747,12 +17756,12 @@
         <v>0</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>18</v>
@@ -17761,10 +17770,10 @@
         <v>44929</v>
       </c>
       <c r="D108" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="E108" s="39" t="s">
         <v>680</v>
-      </c>
-      <c r="E108" s="39" t="s">
-        <v>681</v>
       </c>
       <c r="F108" s="1">
         <v>5</v>
@@ -17806,12 +17815,12 @@
         <v>0</v>
       </c>
       <c r="S108" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
         <v>682</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>683</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>18</v>
@@ -17820,10 +17829,10 @@
         <v>44930</v>
       </c>
       <c r="D109" s="23" t="s">
+        <v>683</v>
+      </c>
+      <c r="E109" s="39" t="s">
         <v>684</v>
-      </c>
-      <c r="E109" s="39" t="s">
-        <v>685</v>
       </c>
       <c r="F109" s="1">
         <v>3</v>
@@ -17865,9 +17874,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>18</v>
@@ -17876,10 +17885,10 @@
         <v>44930</v>
       </c>
       <c r="D110" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="E110" s="39" t="s">
         <v>687</v>
-      </c>
-      <c r="E110" s="39" t="s">
-        <v>688</v>
       </c>
       <c r="F110" s="1">
         <v>1</v>
@@ -17921,9 +17930,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>18</v>
@@ -17932,10 +17941,10 @@
         <v>44931</v>
       </c>
       <c r="D111" s="23" t="s">
+        <v>689</v>
+      </c>
+      <c r="E111" s="39" t="s">
         <v>690</v>
-      </c>
-      <c r="E111" s="39" t="s">
-        <v>691</v>
       </c>
       <c r="F111" s="1">
         <v>3</v>
@@ -17977,12 +17986,12 @@
         <v>0</v>
       </c>
       <c r="S111" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
         <v>692</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>18</v>
@@ -17991,10 +18000,10 @@
         <v>44938</v>
       </c>
       <c r="D112" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="E112" s="39" t="s">
         <v>694</v>
-      </c>
-      <c r="E112" s="39" t="s">
-        <v>695</v>
       </c>
       <c r="F112" s="1">
         <v>3</v>
@@ -18036,9 +18045,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>18</v>
@@ -18047,10 +18056,10 @@
         <v>44938</v>
       </c>
       <c r="D113" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="E113" s="39" t="s">
         <v>697</v>
-      </c>
-      <c r="E113" s="39" t="s">
-        <v>698</v>
       </c>
       <c r="F113" s="1">
         <v>3</v>
@@ -18092,9 +18101,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>18</v>
@@ -18103,10 +18112,10 @@
         <v>44940</v>
       </c>
       <c r="D114" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="E114" s="39" t="s">
         <v>700</v>
-      </c>
-      <c r="E114" s="39" t="s">
-        <v>701</v>
       </c>
       <c r="F114" s="1">
         <v>5</v>
@@ -18148,9 +18157,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>18</v>
@@ -18159,10 +18168,10 @@
         <v>44942</v>
       </c>
       <c r="D115" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="E115" s="39" t="s">
         <v>703</v>
-      </c>
-      <c r="E115" s="39" t="s">
-        <v>704</v>
       </c>
       <c r="F115" s="1">
         <v>3</v>
@@ -18204,12 +18213,12 @@
         <v>0</v>
       </c>
       <c r="S115" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>705</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>18</v>
@@ -18218,10 +18227,10 @@
         <v>44949</v>
       </c>
       <c r="D116" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="E116" s="39" t="s">
         <v>707</v>
-      </c>
-      <c r="E116" s="39" t="s">
-        <v>708</v>
       </c>
       <c r="F116" s="1">
         <v>3</v>
@@ -18263,12 +18272,12 @@
         <v>1</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>18</v>
@@ -18277,10 +18286,10 @@
         <v>44949</v>
       </c>
       <c r="D117" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="E117" s="39" t="s">
         <v>710</v>
-      </c>
-      <c r="E117" s="39" t="s">
-        <v>711</v>
       </c>
       <c r="F117" s="1">
         <v>3</v>
@@ -18322,7 +18331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C118" s="38"/>
       <c r="D118" s="23"/>
       <c r="E118" s="39"/>
@@ -18366,18 +18375,18 @@
         <v>188</v>
       </c>
       <c r="S118" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="T118" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="T118" s="17" t="s">
+      <c r="U118" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="U118" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>12</v>
@@ -18386,10 +18395,10 @@
         <v>44927</v>
       </c>
       <c r="D119" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E119" s="39" t="s">
         <v>713</v>
-      </c>
-      <c r="E119" s="39" t="s">
-        <v>714</v>
       </c>
       <c r="F119" s="1">
         <v>3</v>
@@ -18431,12 +18440,12 @@
         <v>1</v>
       </c>
       <c r="S119" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
         <v>715</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>12</v>
@@ -18445,10 +18454,10 @@
         <v>44927</v>
       </c>
       <c r="D120" s="23" t="s">
+        <v>716</v>
+      </c>
+      <c r="E120" s="39" t="s">
         <v>717</v>
-      </c>
-      <c r="E120" s="39" t="s">
-        <v>718</v>
       </c>
       <c r="F120" s="1">
         <v>5</v>
@@ -18490,12 +18499,12 @@
         <v>1</v>
       </c>
       <c r="S120" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>12</v>
@@ -18504,10 +18513,10 @@
         <v>44928</v>
       </c>
       <c r="D121" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="E121" s="39" t="s">
         <v>720</v>
-      </c>
-      <c r="E121" s="39" t="s">
-        <v>721</v>
       </c>
       <c r="F121" s="1">
         <v>5</v>
@@ -18549,9 +18558,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>12</v>
@@ -18560,10 +18569,10 @@
         <v>44928</v>
       </c>
       <c r="D122" s="23" t="s">
+        <v>722</v>
+      </c>
+      <c r="E122" s="39" t="s">
         <v>723</v>
-      </c>
-      <c r="E122" s="39" t="s">
-        <v>724</v>
       </c>
       <c r="F122" s="1">
         <v>5</v>
@@ -18605,9 +18614,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>12</v>
@@ -18616,10 +18625,10 @@
         <v>44928</v>
       </c>
       <c r="D123" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="E123" s="39" t="s">
         <v>726</v>
-      </c>
-      <c r="E123" s="39" t="s">
-        <v>727</v>
       </c>
       <c r="F123" s="1">
         <v>1</v>
@@ -18661,9 +18670,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>12</v>
@@ -18672,10 +18681,10 @@
         <v>44928</v>
       </c>
       <c r="D124" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="E124" s="39" t="s">
         <v>729</v>
-      </c>
-      <c r="E124" s="39" t="s">
-        <v>730</v>
       </c>
       <c r="F124" s="1">
         <v>1</v>
@@ -18717,9 +18726,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>12</v>
@@ -18728,10 +18737,10 @@
         <v>44928</v>
       </c>
       <c r="D125" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="E125" s="39" t="s">
         <v>732</v>
-      </c>
-      <c r="E125" s="39" t="s">
-        <v>733</v>
       </c>
       <c r="F125" s="1">
         <v>1</v>
@@ -18773,9 +18782,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>12</v>
@@ -18784,10 +18793,10 @@
         <v>44929</v>
       </c>
       <c r="D126" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="E126" s="39" t="s">
         <v>735</v>
-      </c>
-      <c r="E126" s="39" t="s">
-        <v>736</v>
       </c>
       <c r="F126" s="1">
         <v>5</v>
@@ -18829,12 +18838,12 @@
         <v>0</v>
       </c>
       <c r="S126" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>12</v>
@@ -18843,10 +18852,10 @@
         <v>44929</v>
       </c>
       <c r="D127" s="23" t="s">
+        <v>737</v>
+      </c>
+      <c r="E127" s="39" t="s">
         <v>738</v>
-      </c>
-      <c r="E127" s="39" t="s">
-        <v>739</v>
       </c>
       <c r="F127" s="1">
         <v>1</v>
@@ -18888,9 +18897,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>12</v>
@@ -18899,10 +18908,10 @@
         <v>44930</v>
       </c>
       <c r="D128" s="23" t="s">
+        <v>740</v>
+      </c>
+      <c r="E128" s="39" t="s">
         <v>741</v>
-      </c>
-      <c r="E128" s="39" t="s">
-        <v>742</v>
       </c>
       <c r="F128" s="1">
         <v>1</v>
@@ -18944,9 +18953,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>12</v>
@@ -18955,10 +18964,10 @@
         <v>44930</v>
       </c>
       <c r="D129" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="E129" s="39" t="s">
         <v>744</v>
-      </c>
-      <c r="E129" s="39" t="s">
-        <v>745</v>
       </c>
       <c r="F129" s="1">
         <v>1</v>
@@ -19000,12 +19009,12 @@
         <v>1</v>
       </c>
       <c r="S129" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>746</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" ht="48" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>12</v>
@@ -19014,10 +19023,10 @@
         <v>44930</v>
       </c>
       <c r="D130" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="E130" s="39" t="s">
         <v>748</v>
-      </c>
-      <c r="E130" s="39" t="s">
-        <v>749</v>
       </c>
       <c r="F130" s="1">
         <v>1</v>
@@ -19059,12 +19068,12 @@
         <v>1</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>12</v>
@@ -19073,54 +19082,54 @@
         <v>44931</v>
       </c>
       <c r="D131" s="23" t="s">
+        <v>750</v>
+      </c>
+      <c r="E131" s="39" t="s">
         <v>751</v>
       </c>
-      <c r="E131" s="39" t="s">
+      <c r="F131" s="1">
+        <v>1</v>
+      </c>
+      <c r="G131" s="1">
+        <v>1</v>
+      </c>
+      <c r="H131" s="1">
+        <v>1</v>
+      </c>
+      <c r="I131" s="1">
+        <v>1</v>
+      </c>
+      <c r="J131" s="1">
+        <v>4</v>
+      </c>
+      <c r="K131" s="1">
+        <v>1</v>
+      </c>
+      <c r="L131" s="1">
+        <v>2</v>
+      </c>
+      <c r="M131" s="1">
+        <v>2</v>
+      </c>
+      <c r="N131" s="1">
+        <v>4</v>
+      </c>
+      <c r="O131" s="1">
+        <v>3</v>
+      </c>
+      <c r="P131" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q131" s="1">
+        <v>1</v>
+      </c>
+      <c r="R131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="F131" s="1">
-        <v>1</v>
-      </c>
-      <c r="G131" s="1">
-        <v>1</v>
-      </c>
-      <c r="H131" s="1">
-        <v>1</v>
-      </c>
-      <c r="I131" s="1">
-        <v>1</v>
-      </c>
-      <c r="J131" s="1">
-        <v>4</v>
-      </c>
-      <c r="K131" s="1">
-        <v>1</v>
-      </c>
-      <c r="L131" s="1">
-        <v>2</v>
-      </c>
-      <c r="M131" s="1">
-        <v>2</v>
-      </c>
-      <c r="N131" s="1">
-        <v>4</v>
-      </c>
-      <c r="O131" s="1">
-        <v>3</v>
-      </c>
-      <c r="P131" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q131" s="1">
-        <v>1</v>
-      </c>
-      <c r="R131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>12</v>
@@ -19129,10 +19138,10 @@
         <v>44931</v>
       </c>
       <c r="D132" s="23" t="s">
+        <v>753</v>
+      </c>
+      <c r="E132" s="39" t="s">
         <v>754</v>
-      </c>
-      <c r="E132" s="39" t="s">
-        <v>755</v>
       </c>
       <c r="F132" s="1">
         <v>1</v>
@@ -19174,12 +19183,12 @@
         <v>1</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>12</v>
@@ -19188,10 +19197,10 @@
         <v>44933</v>
       </c>
       <c r="D133" s="23" t="s">
+        <v>756</v>
+      </c>
+      <c r="E133" s="39" t="s">
         <v>757</v>
-      </c>
-      <c r="E133" s="39" t="s">
-        <v>758</v>
       </c>
       <c r="F133" s="1">
         <v>1</v>
@@ -19233,9 +19242,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>12</v>
@@ -19244,10 +19253,10 @@
         <v>44934</v>
       </c>
       <c r="D134" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="E134" s="39" t="s">
         <v>760</v>
-      </c>
-      <c r="E134" s="39" t="s">
-        <v>761</v>
       </c>
       <c r="F134" s="1">
         <v>1</v>
@@ -19289,9 +19298,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>12</v>
@@ -19300,10 +19309,10 @@
         <v>44937</v>
       </c>
       <c r="D135" s="23" t="s">
+        <v>762</v>
+      </c>
+      <c r="E135" s="39" t="s">
         <v>763</v>
-      </c>
-      <c r="E135" s="39" t="s">
-        <v>764</v>
       </c>
       <c r="F135" s="1">
         <v>1</v>
@@ -19345,9 +19354,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>12</v>
@@ -19356,10 +19365,10 @@
         <v>44938</v>
       </c>
       <c r="D136" s="23" t="s">
+        <v>765</v>
+      </c>
+      <c r="E136" s="39" t="s">
         <v>766</v>
-      </c>
-      <c r="E136" s="39" t="s">
-        <v>767</v>
       </c>
       <c r="F136" s="1">
         <v>5</v>
@@ -19401,12 +19410,12 @@
         <v>1</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>12</v>
@@ -19415,10 +19424,10 @@
         <v>44938</v>
       </c>
       <c r="D137" s="23" t="s">
+        <v>768</v>
+      </c>
+      <c r="E137" s="39" t="s">
         <v>769</v>
-      </c>
-      <c r="E137" s="39" t="s">
-        <v>770</v>
       </c>
       <c r="F137" s="1">
         <v>1</v>
@@ -19460,12 +19469,12 @@
         <v>2</v>
       </c>
       <c r="S137" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>771</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>12</v>
@@ -19474,10 +19483,10 @@
         <v>44938</v>
       </c>
       <c r="D138" s="23" t="s">
+        <v>772</v>
+      </c>
+      <c r="E138" s="39" t="s">
         <v>773</v>
-      </c>
-      <c r="E138" s="39" t="s">
-        <v>774</v>
       </c>
       <c r="F138" s="1">
         <v>1</v>
@@ -19519,12 +19528,12 @@
         <v>1</v>
       </c>
       <c r="S138" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>775</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21" ht="48" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>776</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>12</v>
@@ -19533,10 +19542,10 @@
         <v>44939</v>
       </c>
       <c r="D139" s="23" t="s">
+        <v>776</v>
+      </c>
+      <c r="E139" s="39" t="s">
         <v>777</v>
-      </c>
-      <c r="E139" s="39" t="s">
-        <v>778</v>
       </c>
       <c r="F139" s="1">
         <v>1</v>
@@ -19578,7 +19587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C140" s="38"/>
       <c r="D140" s="23"/>
       <c r="E140" s="39"/>
@@ -19622,18 +19631,18 @@
         <v>188</v>
       </c>
       <c r="S140" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="T140" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="T140" s="17" t="s">
+      <c r="U140" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="U140" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>12</v>
@@ -19642,10 +19651,10 @@
         <v>44940</v>
       </c>
       <c r="D141" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="E141" s="39" t="s">
         <v>780</v>
-      </c>
-      <c r="E141" s="39" t="s">
-        <v>781</v>
       </c>
       <c r="F141" s="1">
         <v>5</v>
@@ -19687,9 +19696,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>12</v>
@@ -19698,10 +19707,10 @@
         <v>44940</v>
       </c>
       <c r="D142" s="23" t="s">
+        <v>782</v>
+      </c>
+      <c r="E142" s="39" t="s">
         <v>783</v>
-      </c>
-      <c r="E142" s="39" t="s">
-        <v>784</v>
       </c>
       <c r="F142" s="1">
         <v>1</v>
@@ -19743,9 +19752,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>12</v>
@@ -19754,10 +19763,10 @@
         <v>44942</v>
       </c>
       <c r="D143" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="E143" s="39" t="s">
         <v>786</v>
-      </c>
-      <c r="E143" s="39" t="s">
-        <v>787</v>
       </c>
       <c r="F143" s="1">
         <v>5</v>
@@ -19799,9 +19808,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>12</v>
@@ -19810,10 +19819,10 @@
         <v>44943</v>
       </c>
       <c r="D144" s="23" t="s">
+        <v>788</v>
+      </c>
+      <c r="E144" s="39" t="s">
         <v>789</v>
-      </c>
-      <c r="E144" s="39" t="s">
-        <v>790</v>
       </c>
       <c r="F144" s="1">
         <v>1</v>
@@ -19855,9 +19864,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>12</v>
@@ -19866,10 +19875,10 @@
         <v>44946</v>
       </c>
       <c r="D145" s="23" t="s">
+        <v>791</v>
+      </c>
+      <c r="E145" s="39" t="s">
         <v>792</v>
-      </c>
-      <c r="E145" s="39" t="s">
-        <v>793</v>
       </c>
       <c r="F145" s="1">
         <v>1</v>
@@ -19911,9 +19920,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>12</v>
@@ -19922,54 +19931,54 @@
         <v>44949</v>
       </c>
       <c r="D146" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="E146" s="39" t="s">
         <v>795</v>
       </c>
-      <c r="E146" s="39" t="s">
+      <c r="F146" s="1">
+        <v>1</v>
+      </c>
+      <c r="G146" s="1">
+        <v>1</v>
+      </c>
+      <c r="H146" s="1">
+        <v>2</v>
+      </c>
+      <c r="I146" s="1">
+        <v>1</v>
+      </c>
+      <c r="J146" s="1">
+        <v>4</v>
+      </c>
+      <c r="K146" s="1">
+        <v>2</v>
+      </c>
+      <c r="L146" s="1">
+        <v>1</v>
+      </c>
+      <c r="M146" s="1">
+        <v>1</v>
+      </c>
+      <c r="N146" s="1">
+        <v>4</v>
+      </c>
+      <c r="O146" s="1">
+        <v>3</v>
+      </c>
+      <c r="P146" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q146" s="1">
+        <v>1</v>
+      </c>
+      <c r="R146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="F146" s="1">
-        <v>1</v>
-      </c>
-      <c r="G146" s="1">
-        <v>1</v>
-      </c>
-      <c r="H146" s="1">
-        <v>2</v>
-      </c>
-      <c r="I146" s="1">
-        <v>1</v>
-      </c>
-      <c r="J146" s="1">
-        <v>4</v>
-      </c>
-      <c r="K146" s="1">
-        <v>2</v>
-      </c>
-      <c r="L146" s="1">
-        <v>1</v>
-      </c>
-      <c r="M146" s="1">
-        <v>1</v>
-      </c>
-      <c r="N146" s="1">
-        <v>4</v>
-      </c>
-      <c r="O146" s="1">
-        <v>3</v>
-      </c>
-      <c r="P146" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q146" s="1">
-        <v>1</v>
-      </c>
-      <c r="R146" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" ht="32" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>797</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>12</v>
@@ -19978,10 +19987,10 @@
         <v>44950</v>
       </c>
       <c r="D147" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="E147" s="39" t="s">
         <v>798</v>
-      </c>
-      <c r="E147" s="39" t="s">
-        <v>799</v>
       </c>
       <c r="F147" s="1">
         <v>1</v>
@@ -20023,12 +20032,12 @@
         <v>4</v>
       </c>
       <c r="S147" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
         <v>800</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" ht="32" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>801</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>12</v>
@@ -20037,10 +20046,10 @@
         <v>44950</v>
       </c>
       <c r="D148" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="E148" s="39" t="s">
         <v>802</v>
-      </c>
-      <c r="E148" s="39" t="s">
-        <v>803</v>
       </c>
       <c r="F148" s="1">
         <v>5</v>
@@ -20082,12 +20091,12 @@
         <v>2</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>12</v>
@@ -20096,10 +20105,10 @@
         <v>44951</v>
       </c>
       <c r="D149" s="23" t="s">
+        <v>804</v>
+      </c>
+      <c r="E149" s="39" t="s">
         <v>805</v>
-      </c>
-      <c r="E149" s="39" t="s">
-        <v>806</v>
       </c>
       <c r="F149" s="1">
         <v>1</v>
